--- a/Example/例程说明.xlsx
+++ b/Example/例程说明.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__gitee\Gitee_STC32G12K128_Library\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__gitee\Gitee_MCU_Library\Gitee_STC32G12K128_Library\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D30301-9FB4-477F-BB62-91A7619DC4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16735" windowHeight="8083"/>
+    <workbookView xWindow="340" yWindow="1960" windowWidth="24790" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,15 +88,6 @@
     <t>脉宽调制</t>
   </si>
   <si>
-    <t>7-Decode Demo</t>
-  </si>
-  <si>
-    <t>编码器解码</t>
-  </si>
-  <si>
-    <t>使用带方向的编码器，解码</t>
-  </si>
-  <si>
     <t>8-UART Demo</t>
   </si>
   <si>
@@ -140,14 +132,25 @@
   </si>
   <si>
     <t>里面讲解了RAM和FLAH的大小和分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-Pulse Capture Demo</t>
+  </si>
+  <si>
+    <t>脉冲计数例程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用定时器捕获脉冲数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +161,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -182,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -493,19 +505,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -588,68 +600,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,6 +694,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>